--- a/Task 3/Net Banking Application.xlsx
+++ b/Task 3/Net Banking Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\Desktop\Guvi Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B0001-C5CE-4C11-9A6F-B5D1FABD2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B05A23-6446-49D2-9444-D2494A64CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E72AA579-427B-4492-A98A-F75A838F4970}"/>
   </bookViews>
@@ -497,7 +497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E9AA5-3F74-4754-B37A-87E62EC3BBC3}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
